--- a/Tailieu/ChecklistReviewCode.xlsx
+++ b/Tailieu/ChecklistReviewCode.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\LA26\pro_la26am1\03_Input\04_BaiTapCuoiKhoa\ManageUser\CheckList\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Logout" sheetId="2" r:id="rId2"/>
     <sheet name="ListUser" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
   <si>
     <t>Tiến độ</t>
   </si>
@@ -198,6 +193,27 @@
   </si>
   <si>
     <t>Đang xử lý trường hợp Search kí tự đặc biệt, sau đó Sort/Paging như thế nào?</t>
+  </si>
+  <si>
+    <t>có</t>
+  </si>
+  <si>
+    <t>có chậm 1 day</t>
+  </si>
+  <si>
+    <t>đủ rồi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">có </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có </t>
+  </si>
+  <si>
+    <t>rồi</t>
+  </si>
+  <si>
+    <t>không</t>
   </si>
 </sst>
 </file>
@@ -390,6 +406,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -402,6 +443,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -414,51 +473,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,7 +536,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -555,7 +571,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -732,7 +748,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -742,28 +758,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="27.21875" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="str">
+      <c r="B1" s="14" t="str">
         <f>UPPER("Tiêu chí review code Login")</f>
         <v>TIÊU CHÍ REVIEW CODE LOGIN</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -780,7 +796,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -790,10 +806,12 @@
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -803,45 +821,53 @@
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -851,45 +877,53 @@
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -899,7 +933,9 @@
       <c r="C12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="E12" s="3"/>
     </row>
   </sheetData>
@@ -917,28 +953,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="27.21875" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="str">
+      <c r="B1" s="14" t="str">
         <f>UPPER("Tiêu chí review code Logout")</f>
         <v>TIÊU CHÍ REVIEW CODE LOGOUT</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -955,7 +991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -965,10 +1001,12 @@
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -978,45 +1016,53 @@
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1026,10 +1072,12 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -1039,7 +1087,9 @@
       <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="E9" s="3"/>
     </row>
   </sheetData>
@@ -1056,352 +1106,353 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="31.88671875" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="7" width="24.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="7" width="24.140625" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+    <row r="6" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
         <v>1</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
         <v>2</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
         <v>3</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="15">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
         <v>4</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
+      <c r="B9" s="9"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
         <v>5</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
         <v>6</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="18">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
         <v>7</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="18">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
         <v>8</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="18">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
         <v>9</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="18">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
         <v>10</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-    </row>
-    <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="17" spans="1:5" ht="17.45" x14ac:dyDescent="0.3">
+      <c r="A17" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21">
+    <row r="19" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
         <v>1</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="22"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="21">
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
         <v>2</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="22"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="21">
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
         <v>3</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="22"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21">
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
         <v>4</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="22"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21">
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
         <v>5</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="22"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21">
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
         <v>6</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="22"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21">
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
         <v>7</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="22"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21">
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
         <v>8</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="22"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21">
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
         <v>9</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="22"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21">
+      <c r="C27" s="22"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="13"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
         <v>10</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="22"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21">
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
         <v>11</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
@@ -1409,12 +1460,11 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tailieu/ChecklistReviewCode.xlsx
+++ b/Tailieu/ChecklistReviewCode.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LA-PM\Desktop\Dung\LunivaCODE\Tailieu\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Logout" sheetId="2" r:id="rId2"/>
     <sheet name="ListUser" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="91">
   <si>
     <t>Tiến độ</t>
   </si>
@@ -214,6 +219,105 @@
   </si>
   <si>
     <t>không</t>
+  </si>
+  <si>
+    <t>ListUserController</t>
+  </si>
+  <si>
+    <t>doGet</t>
+  </si>
+  <si>
+    <t>BaseDaoImpl</t>
+  </si>
+  <si>
+    <t>connection</t>
+  </si>
+  <si>
+    <t>closeConnection</t>
+  </si>
+  <si>
+    <t>MstGroupDaoImpl</t>
+  </si>
+  <si>
+    <t>getAllMstGroup</t>
+  </si>
+  <si>
+    <t>TblUserDaoImpl</t>
+  </si>
+  <si>
+    <t>getUserByUserName</t>
+  </si>
+  <si>
+    <t>getTotalUser</t>
+  </si>
+  <si>
+    <t>getListUsers</t>
+  </si>
+  <si>
+    <t>getColumn</t>
+  </si>
+  <si>
+    <t>MstGroupLogicsImpl</t>
+  </si>
+  <si>
+    <t>checkExistLoginID</t>
+  </si>
+  <si>
+    <t>getTotalRecords</t>
+  </si>
+  <si>
+    <t>replaceWildcard</t>
+  </si>
+  <si>
+    <t>ValidateUser</t>
+  </si>
+  <si>
+    <t>validateLogin</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>EncodeCreatePassword</t>
+  </si>
+  <si>
+    <t>compare</t>
+  </si>
+  <si>
+    <t>checkLogin</t>
+  </si>
+  <si>
+    <t>getListPaging</t>
+  </si>
+  <si>
+    <t>getOffset</t>
+  </si>
+  <si>
+    <t>getLimit</t>
+  </si>
+  <si>
+    <t>getTotalPage</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Rồi</t>
+  </si>
+  <si>
+    <t>Sử dụng Prepared statement</t>
+  </si>
+  <si>
+    <t>RỒi</t>
+  </si>
+  <si>
+    <t>sử dụng encode</t>
+  </si>
+  <si>
+    <t>đã fix rồi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">đã fix rồi </t>
   </si>
 </sst>
 </file>
@@ -274,12 +378,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -392,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -443,6 +553,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -452,29 +586,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,7 +880,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -758,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,7 +941,9 @@
       <c r="D3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -953,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,7 +1138,9 @@
       <c r="D3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -1104,10 +1240,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1120,42 +1256,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -1183,288 +1319,622 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>1</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="B6" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>84</v>
+      </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>2</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="B7" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>84</v>
+      </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="C8" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>84</v>
+      </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>4</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="B9" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>84</v>
+      </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>5</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="B10" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>84</v>
+      </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>6</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>84</v>
+      </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>7</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>84</v>
+      </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>8</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>84</v>
+      </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
-        <v>9</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>84</v>
+      </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
-        <v>10</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>84</v>
+      </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="17" spans="1:5" ht="17.45" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>9</v>
+      </c>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>10</v>
+      </c>
+      <c r="B27" s="33"/>
+      <c r="C27" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="29" spans="1:8" ht="17.45" x14ac:dyDescent="0.3">
+      <c r="A29" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B30" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="1" t="s">
+      <c r="C30" s="27"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+    <row r="31" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
         <v>1</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B31" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="13"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
         <v>2</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B32" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+      <c r="C32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
         <v>3</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B33" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="13"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="C33" s="24"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
         <v>4</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B34" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="13"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
         <v>5</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B35" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="13"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="C35" s="24"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
         <v>6</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B36" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="13"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+      <c r="C36" s="24"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
         <v>7</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B37" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
+      <c r="C37" s="24"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
         <v>8</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B38" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
+      <c r="C38" s="24"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
         <v>9</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B39" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="13"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
+      <c r="C39" s="24"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
         <v>10</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B40" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="13"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
+      <c r="C40" s="24"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12">
         <v>11</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="13"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="13" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="A29:D29"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
